--- a/游戏数据.xlsx
+++ b/游戏数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="9705" windowHeight="3000" tabRatio="305" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="9705" windowHeight="3000" tabRatio="441" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="装备性能表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="552">
   <si>
     <t>武器等级</t>
   </si>
@@ -1645,6 +1645,138 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇猛I</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚守I</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻I</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜头</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击I</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚守II</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽强I</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击II</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇猛II</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能4</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻II</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽强II</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能5</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能6</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能7</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能8</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能9</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>技能1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝物5</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝物6</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成动画图像</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能个数</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>技能1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1662,7 +1794,7 @@
     <numFmt numFmtId="182" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="183" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1778,6 +1910,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0B0B0B"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3495,7 +3642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="300">
+  <borders count="301">
     <border>
       <left/>
       <right/>
@@ -6992,6 +7139,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7022,7 +7184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="709">
+  <cellXfs count="732">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -7756,6 +7918,29 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="300" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="300" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="300" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="300" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="300" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="300" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="300" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="300" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="300" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="300" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="300" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="300" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="300" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="245" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="245" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="245" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="245" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="245" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="102" borderId="245" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="245" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="245" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="300" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
@@ -17559,13 +17744,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.25" thickBottom="1"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="85" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -17577,9 +17762,15 @@
     <col min="8" max="8" width="8.140625" style="87" customWidth="1"/>
     <col min="9" max="11" width="8.85546875" style="87" customWidth="1"/>
     <col min="12" max="15" width="10.85546875" style="87" customWidth="1"/>
+    <col min="16" max="17" width="10.85546875" style="729" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="716"/>
+    <col min="20" max="20" width="17.5703125" style="716" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="716" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="12.5703125" style="716"/>
+    <col min="30" max="30" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" ht="22.5">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="23.25" thickBot="1">
       <c r="A1" s="53" t="s">
         <v>78</v>
       </c>
@@ -17625,8 +17816,53 @@
       <c r="O1" s="21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="22.5">
+      <c r="P1" s="730" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q1" s="730" t="s">
+        <v>548</v>
+      </c>
+      <c r="R1" s="721" t="s">
+        <v>550</v>
+      </c>
+      <c r="S1" s="709" t="s">
+        <v>525</v>
+      </c>
+      <c r="T1" s="709" t="s">
+        <v>526</v>
+      </c>
+      <c r="U1" s="709" t="s">
+        <v>527</v>
+      </c>
+      <c r="V1" s="731" t="s">
+        <v>538</v>
+      </c>
+      <c r="W1" s="731" t="s">
+        <v>541</v>
+      </c>
+      <c r="X1" s="731" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y1" s="731" t="s">
+        <v>543</v>
+      </c>
+      <c r="Z1" s="731" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA1" s="731" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB1" s="731" t="s">
+        <v>546</v>
+      </c>
+      <c r="AC1" s="731" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD1" s="721" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="48">
         <v>2</v>
       </c>
@@ -17656,11 +17892,27 @@
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="723"/>
+      <c r="Q2" s="723"/>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="710"/>
+      <c r="T2" s="710"/>
+      <c r="U2" s="710"/>
+      <c r="V2" s="710"/>
+      <c r="W2" s="710"/>
+      <c r="X2" s="710"/>
+      <c r="Y2" s="710"/>
+      <c r="Z2" s="710"/>
+      <c r="AA2" s="710"/>
+      <c r="AB2" s="710"/>
+      <c r="AC2" s="710"/>
+      <c r="AD2" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="22.5">
+    <row r="3" spans="1:30" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A3" s="48">
         <v>3</v>
       </c>
@@ -17692,11 +17944,27 @@
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="723"/>
+      <c r="Q3" s="723"/>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="710"/>
+      <c r="T3" s="710"/>
+      <c r="U3" s="710"/>
+      <c r="V3" s="710"/>
+      <c r="W3" s="710"/>
+      <c r="X3" s="710"/>
+      <c r="Y3" s="710"/>
+      <c r="Z3" s="710"/>
+      <c r="AA3" s="710"/>
+      <c r="AB3" s="710"/>
+      <c r="AC3" s="710"/>
+      <c r="AD3" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="22.5">
+    <row r="4" spans="1:30" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A4" s="48">
         <v>4</v>
       </c>
@@ -17730,11 +17998,27 @@
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="723"/>
+      <c r="Q4" s="723"/>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="710"/>
+      <c r="T4" s="710"/>
+      <c r="U4" s="710"/>
+      <c r="V4" s="710"/>
+      <c r="W4" s="710"/>
+      <c r="X4" s="710"/>
+      <c r="Y4" s="710"/>
+      <c r="Z4" s="710"/>
+      <c r="AA4" s="710"/>
+      <c r="AB4" s="710"/>
+      <c r="AC4" s="710"/>
+      <c r="AD4" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="22.5">
+    <row r="5" spans="1:30" s="4" customFormat="1" ht="23.25" thickBot="1">
       <c r="A5" s="49">
         <v>5</v>
       </c>
@@ -17770,11 +18054,27 @@
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="724"/>
+      <c r="Q5" s="724"/>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="711"/>
+      <c r="T5" s="711"/>
+      <c r="U5" s="711"/>
+      <c r="V5" s="711"/>
+      <c r="W5" s="711"/>
+      <c r="X5" s="711"/>
+      <c r="Y5" s="711"/>
+      <c r="Z5" s="711"/>
+      <c r="AA5" s="711"/>
+      <c r="AB5" s="711"/>
+      <c r="AC5" s="711"/>
+      <c r="AD5" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="22.5">
+    <row r="6" spans="1:30" s="4" customFormat="1" ht="23.25" thickBot="1">
       <c r="A6" s="49">
         <v>6</v>
       </c>
@@ -17812,11 +18112,29 @@
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="724"/>
+      <c r="Q6" s="724"/>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="717" t="s">
+        <v>535</v>
+      </c>
+      <c r="T6" s="711"/>
+      <c r="U6" s="711"/>
+      <c r="V6" s="711"/>
+      <c r="W6" s="711"/>
+      <c r="X6" s="711"/>
+      <c r="Y6" s="711"/>
+      <c r="Z6" s="711"/>
+      <c r="AA6" s="711"/>
+      <c r="AB6" s="711"/>
+      <c r="AC6" s="711"/>
+      <c r="AD6" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="22.5">
+    <row r="7" spans="1:30" s="4" customFormat="1" ht="23.25" thickBot="1">
       <c r="A7" s="49">
         <v>7</v>
       </c>
@@ -17854,11 +18172,29 @@
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="724"/>
+      <c r="Q7" s="724"/>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="717" t="s">
+        <v>528</v>
+      </c>
+      <c r="T7" s="711"/>
+      <c r="U7" s="711"/>
+      <c r="V7" s="711"/>
+      <c r="W7" s="711"/>
+      <c r="X7" s="711"/>
+      <c r="Y7" s="711"/>
+      <c r="Z7" s="711"/>
+      <c r="AA7" s="711"/>
+      <c r="AB7" s="711"/>
+      <c r="AC7" s="711"/>
+      <c r="AD7" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="22.5">
+    <row r="8" spans="1:30" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A8" s="50">
         <v>8</v>
       </c>
@@ -17896,11 +18232,29 @@
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="725"/>
+      <c r="Q8" s="725"/>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="718" t="s">
+        <v>529</v>
+      </c>
+      <c r="T8" s="718"/>
+      <c r="U8" s="712"/>
+      <c r="V8" s="712"/>
+      <c r="W8" s="712"/>
+      <c r="X8" s="712"/>
+      <c r="Y8" s="712"/>
+      <c r="Z8" s="712"/>
+      <c r="AA8" s="712"/>
+      <c r="AB8" s="712"/>
+      <c r="AC8" s="712"/>
+      <c r="AD8" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="22.5">
+    <row r="9" spans="1:30" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A9" s="347">
         <v>9</v>
       </c>
@@ -17938,11 +18292,29 @@
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="725"/>
+      <c r="Q9" s="725"/>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="718" t="s">
+        <v>530</v>
+      </c>
+      <c r="T9" s="718"/>
+      <c r="U9" s="712"/>
+      <c r="V9" s="712"/>
+      <c r="W9" s="712"/>
+      <c r="X9" s="712"/>
+      <c r="Y9" s="712"/>
+      <c r="Z9" s="712"/>
+      <c r="AA9" s="712"/>
+      <c r="AB9" s="712"/>
+      <c r="AC9" s="712"/>
+      <c r="AD9" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="22.5">
+    <row r="10" spans="1:30" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A10" s="50">
         <v>10</v>
       </c>
@@ -17980,11 +18352,31 @@
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="725"/>
+      <c r="Q10" s="725"/>
+      <c r="R10" s="3">
+        <v>2</v>
+      </c>
+      <c r="S10" s="718" t="s">
+        <v>531</v>
+      </c>
+      <c r="T10" s="718" t="s">
+        <v>535</v>
+      </c>
+      <c r="U10" s="712"/>
+      <c r="V10" s="712"/>
+      <c r="W10" s="712"/>
+      <c r="X10" s="712"/>
+      <c r="Y10" s="712"/>
+      <c r="Z10" s="712"/>
+      <c r="AA10" s="712"/>
+      <c r="AB10" s="712"/>
+      <c r="AC10" s="712"/>
+      <c r="AD10" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" ht="22.5">
+    <row r="11" spans="1:30" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A11" s="51">
         <v>11</v>
       </c>
@@ -18022,11 +18414,31 @@
       <c r="M11" s="39"/>
       <c r="N11" s="39"/>
       <c r="O11" s="39"/>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="726"/>
+      <c r="Q11" s="726"/>
+      <c r="R11" s="5">
+        <v>2</v>
+      </c>
+      <c r="S11" s="719" t="s">
+        <v>532</v>
+      </c>
+      <c r="T11" s="719" t="s">
+        <v>528</v>
+      </c>
+      <c r="U11" s="713"/>
+      <c r="V11" s="713"/>
+      <c r="W11" s="713"/>
+      <c r="X11" s="713"/>
+      <c r="Y11" s="713"/>
+      <c r="Z11" s="713"/>
+      <c r="AA11" s="713"/>
+      <c r="AB11" s="713"/>
+      <c r="AC11" s="713"/>
+      <c r="AD11" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="5" customFormat="1" ht="22.5">
+    <row r="12" spans="1:30" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A12" s="348">
         <v>12</v>
       </c>
@@ -18064,11 +18476,31 @@
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="726"/>
+      <c r="Q12" s="726"/>
+      <c r="R12" s="5">
+        <v>2</v>
+      </c>
+      <c r="S12" s="719" t="s">
+        <v>533</v>
+      </c>
+      <c r="T12" s="719" t="s">
+        <v>529</v>
+      </c>
+      <c r="U12" s="713"/>
+      <c r="V12" s="713"/>
+      <c r="W12" s="713"/>
+      <c r="X12" s="713"/>
+      <c r="Y12" s="713"/>
+      <c r="Z12" s="713"/>
+      <c r="AA12" s="713"/>
+      <c r="AB12" s="713"/>
+      <c r="AC12" s="713"/>
+      <c r="AD12" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" ht="22.5">
+    <row r="13" spans="1:30" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A13" s="51">
         <v>13</v>
       </c>
@@ -18106,11 +18538,31 @@
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="726"/>
+      <c r="Q13" s="726"/>
+      <c r="R13" s="5">
+        <v>2</v>
+      </c>
+      <c r="S13" s="719" t="s">
+        <v>530</v>
+      </c>
+      <c r="T13" s="719" t="s">
+        <v>534</v>
+      </c>
+      <c r="U13" s="713"/>
+      <c r="V13" s="713"/>
+      <c r="W13" s="713"/>
+      <c r="X13" s="713"/>
+      <c r="Y13" s="713"/>
+      <c r="Z13" s="713"/>
+      <c r="AA13" s="713"/>
+      <c r="AB13" s="713"/>
+      <c r="AC13" s="713"/>
+      <c r="AD13" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" ht="22.5">
+    <row r="14" spans="1:30" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A14" s="51">
         <v>14</v>
       </c>
@@ -18148,11 +18600,31 @@
       <c r="M14" s="39"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="726"/>
+      <c r="Q14" s="726"/>
+      <c r="R14" s="5">
+        <v>3</v>
+      </c>
+      <c r="S14" s="719" t="s">
+        <v>536</v>
+      </c>
+      <c r="T14" s="719" t="s">
+        <v>534</v>
+      </c>
+      <c r="U14" s="713"/>
+      <c r="V14" s="713"/>
+      <c r="W14" s="713"/>
+      <c r="X14" s="713"/>
+      <c r="Y14" s="713"/>
+      <c r="Z14" s="713"/>
+      <c r="AA14" s="713"/>
+      <c r="AB14" s="713"/>
+      <c r="AC14" s="713"/>
+      <c r="AD14" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="6" customFormat="1" ht="22.5">
+    <row r="15" spans="1:30" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A15" s="52">
         <v>15</v>
       </c>
@@ -18192,11 +18664,33 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="727"/>
+      <c r="Q15" s="727"/>
+      <c r="R15" s="6">
+        <v>3</v>
+      </c>
+      <c r="S15" s="720" t="s">
+        <v>532</v>
+      </c>
+      <c r="T15" s="720" t="s">
+        <v>537</v>
+      </c>
+      <c r="U15" s="720" t="s">
+        <v>530</v>
+      </c>
+      <c r="V15" s="714"/>
+      <c r="W15" s="714"/>
+      <c r="X15" s="714"/>
+      <c r="Y15" s="714"/>
+      <c r="Z15" s="714"/>
+      <c r="AA15" s="714"/>
+      <c r="AB15" s="714"/>
+      <c r="AC15" s="714"/>
+      <c r="AD15" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="6" customFormat="1" ht="22.5">
+    <row r="16" spans="1:30" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A16" s="349">
         <v>16</v>
       </c>
@@ -18238,11 +18732,33 @@
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="727"/>
+      <c r="Q16" s="727"/>
+      <c r="R16" s="6">
+        <v>3</v>
+      </c>
+      <c r="S16" s="720" t="s">
+        <v>536</v>
+      </c>
+      <c r="T16" s="720" t="s">
+        <v>534</v>
+      </c>
+      <c r="U16" s="720" t="s">
+        <v>531</v>
+      </c>
+      <c r="V16" s="714"/>
+      <c r="W16" s="714"/>
+      <c r="X16" s="714"/>
+      <c r="Y16" s="714"/>
+      <c r="Z16" s="714"/>
+      <c r="AA16" s="714"/>
+      <c r="AB16" s="714"/>
+      <c r="AC16" s="714"/>
+      <c r="AD16" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="6" customFormat="1" ht="22.5">
+    <row r="17" spans="1:30" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A17" s="346">
         <v>17</v>
       </c>
@@ -18286,11 +18802,35 @@
         <v>9</v>
       </c>
       <c r="O17" s="18"/>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="727"/>
+      <c r="Q17" s="727"/>
+      <c r="R17" s="6">
+        <v>3</v>
+      </c>
+      <c r="S17" s="720" t="s">
+        <v>531</v>
+      </c>
+      <c r="T17" s="720" t="s">
+        <v>537</v>
+      </c>
+      <c r="U17" s="720" t="s">
+        <v>534</v>
+      </c>
+      <c r="V17" s="720" t="s">
+        <v>535</v>
+      </c>
+      <c r="W17" s="714"/>
+      <c r="X17" s="714"/>
+      <c r="Y17" s="714"/>
+      <c r="Z17" s="714"/>
+      <c r="AA17" s="714"/>
+      <c r="AB17" s="714"/>
+      <c r="AC17" s="714"/>
+      <c r="AD17" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="6" customFormat="1" ht="22.5">
+    <row r="18" spans="1:30" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A18" s="52">
         <v>18</v>
       </c>
@@ -18334,11 +18874,35 @@
         <v>19</v>
       </c>
       <c r="O18" s="18"/>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="727"/>
+      <c r="Q18" s="727"/>
+      <c r="R18" s="6">
+        <v>3</v>
+      </c>
+      <c r="S18" s="720" t="s">
+        <v>539</v>
+      </c>
+      <c r="T18" s="720" t="s">
+        <v>534</v>
+      </c>
+      <c r="U18" s="720" t="s">
+        <v>537</v>
+      </c>
+      <c r="V18" s="720" t="s">
+        <v>540</v>
+      </c>
+      <c r="W18" s="714"/>
+      <c r="X18" s="714"/>
+      <c r="Y18" s="714"/>
+      <c r="Z18" s="714"/>
+      <c r="AA18" s="714"/>
+      <c r="AB18" s="714"/>
+      <c r="AC18" s="714"/>
+      <c r="AD18" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="9" customFormat="1" ht="22.5">
+    <row r="19" spans="1:30" s="9" customFormat="1" ht="23.25" thickBot="1">
       <c r="A19" s="47">
         <v>19</v>
       </c>
@@ -18382,11 +18946,27 @@
         <v>10</v>
       </c>
       <c r="O19" s="86"/>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="728"/>
+      <c r="Q19" s="728"/>
+      <c r="R19" s="9">
+        <v>4</v>
+      </c>
+      <c r="S19" s="722"/>
+      <c r="T19" s="722"/>
+      <c r="U19" s="722"/>
+      <c r="V19" s="715"/>
+      <c r="W19" s="715"/>
+      <c r="X19" s="715"/>
+      <c r="Y19" s="715"/>
+      <c r="Z19" s="715"/>
+      <c r="AA19" s="715"/>
+      <c r="AB19" s="715"/>
+      <c r="AC19" s="715"/>
+      <c r="AD19" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="9" customFormat="1" ht="22.5">
+    <row r="20" spans="1:30" s="9" customFormat="1" ht="23.25" thickBot="1">
       <c r="A20" s="351">
         <v>20</v>
       </c>
@@ -18428,11 +19008,27 @@
         <v>16</v>
       </c>
       <c r="O20" s="86"/>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="728"/>
+      <c r="Q20" s="728"/>
+      <c r="R20" s="9">
+        <v>4</v>
+      </c>
+      <c r="S20" s="715"/>
+      <c r="T20" s="715"/>
+      <c r="U20" s="715"/>
+      <c r="V20" s="715"/>
+      <c r="W20" s="715"/>
+      <c r="X20" s="715"/>
+      <c r="Y20" s="715"/>
+      <c r="Z20" s="715"/>
+      <c r="AA20" s="715"/>
+      <c r="AB20" s="715"/>
+      <c r="AC20" s="715"/>
+      <c r="AD20" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="9" customFormat="1" ht="22.5">
+    <row r="21" spans="1:30" s="9" customFormat="1" ht="23.25" thickBot="1">
       <c r="A21" s="47">
         <v>21</v>
       </c>
@@ -18474,11 +19070,27 @@
         <v>17</v>
       </c>
       <c r="O21" s="86"/>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="728"/>
+      <c r="Q21" s="728"/>
+      <c r="R21" s="9">
+        <v>4</v>
+      </c>
+      <c r="S21" s="715"/>
+      <c r="T21" s="715"/>
+      <c r="U21" s="715"/>
+      <c r="V21" s="715"/>
+      <c r="W21" s="715"/>
+      <c r="X21" s="715"/>
+      <c r="Y21" s="715"/>
+      <c r="Z21" s="715"/>
+      <c r="AA21" s="715"/>
+      <c r="AB21" s="715"/>
+      <c r="AC21" s="715"/>
+      <c r="AD21" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="9" customFormat="1" ht="22.5">
+    <row r="22" spans="1:30" s="9" customFormat="1" ht="23.25" thickBot="1">
       <c r="A22" s="47">
         <v>22</v>
       </c>
@@ -18522,11 +19134,27 @@
         <v>12</v>
       </c>
       <c r="O22" s="86"/>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="728"/>
+      <c r="Q22" s="728"/>
+      <c r="R22" s="9">
+        <v>4</v>
+      </c>
+      <c r="S22" s="715"/>
+      <c r="T22" s="715"/>
+      <c r="U22" s="715"/>
+      <c r="V22" s="715"/>
+      <c r="W22" s="715"/>
+      <c r="X22" s="715"/>
+      <c r="Y22" s="715"/>
+      <c r="Z22" s="715"/>
+      <c r="AA22" s="715"/>
+      <c r="AB22" s="715"/>
+      <c r="AC22" s="715"/>
+      <c r="AD22" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="9" customFormat="1" ht="22.5">
+    <row r="23" spans="1:30" s="9" customFormat="1" ht="23.25" thickBot="1">
       <c r="A23" s="47">
         <v>23</v>
       </c>
@@ -18568,11 +19196,27 @@
         <v>7</v>
       </c>
       <c r="O23" s="86"/>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="728"/>
+      <c r="Q23" s="728"/>
+      <c r="R23" s="9">
+        <v>4</v>
+      </c>
+      <c r="S23" s="715"/>
+      <c r="T23" s="715"/>
+      <c r="U23" s="715"/>
+      <c r="V23" s="715"/>
+      <c r="W23" s="715"/>
+      <c r="X23" s="715"/>
+      <c r="Y23" s="715"/>
+      <c r="Z23" s="715"/>
+      <c r="AA23" s="715"/>
+      <c r="AB23" s="715"/>
+      <c r="AC23" s="715"/>
+      <c r="AD23" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" ht="22.5">
+    <row r="24" spans="1:30" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A24" s="345">
         <v>24</v>
       </c>
@@ -18614,11 +19258,27 @@
         <v>7</v>
       </c>
       <c r="O24" s="34"/>
-      <c r="P24" s="8" t="s">
+      <c r="P24" s="723"/>
+      <c r="Q24" s="723"/>
+      <c r="R24" s="8">
+        <v>5</v>
+      </c>
+      <c r="S24" s="710"/>
+      <c r="T24" s="710"/>
+      <c r="U24" s="710"/>
+      <c r="V24" s="710"/>
+      <c r="W24" s="710"/>
+      <c r="X24" s="710"/>
+      <c r="Y24" s="710"/>
+      <c r="Z24" s="710"/>
+      <c r="AA24" s="710"/>
+      <c r="AB24" s="710"/>
+      <c r="AC24" s="710"/>
+      <c r="AD24" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" ht="22.5">
+    <row r="25" spans="1:30" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A25" s="48">
         <v>25</v>
       </c>
@@ -18644,11 +19304,27 @@
         <v>132</v>
       </c>
       <c r="O25" s="34"/>
-      <c r="P25" s="8" t="s">
+      <c r="P25" s="723"/>
+      <c r="Q25" s="723"/>
+      <c r="R25" s="8">
+        <v>5</v>
+      </c>
+      <c r="S25" s="710"/>
+      <c r="T25" s="710"/>
+      <c r="U25" s="710"/>
+      <c r="V25" s="710"/>
+      <c r="W25" s="710"/>
+      <c r="X25" s="710"/>
+      <c r="Y25" s="710"/>
+      <c r="Z25" s="710"/>
+      <c r="AA25" s="710"/>
+      <c r="AB25" s="710"/>
+      <c r="AC25" s="710"/>
+      <c r="AD25" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="8" customFormat="1" ht="22.5">
+    <row r="26" spans="1:30" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A26" s="48">
         <v>26</v>
       </c>
@@ -18674,11 +19350,27 @@
         <v>132</v>
       </c>
       <c r="O26" s="34"/>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="723"/>
+      <c r="Q26" s="723"/>
+      <c r="R26" s="8">
+        <v>5</v>
+      </c>
+      <c r="S26" s="710"/>
+      <c r="T26" s="710"/>
+      <c r="U26" s="710"/>
+      <c r="V26" s="710"/>
+      <c r="W26" s="710"/>
+      <c r="X26" s="710"/>
+      <c r="Y26" s="710"/>
+      <c r="Z26" s="710"/>
+      <c r="AA26" s="710"/>
+      <c r="AB26" s="710"/>
+      <c r="AC26" s="710"/>
+      <c r="AD26" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" ht="22.5">
+    <row r="27" spans="1:30" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A27" s="352">
         <v>27</v>
       </c>
@@ -18704,11 +19396,27 @@
         <v>134</v>
       </c>
       <c r="O27" s="34"/>
-      <c r="P27" s="8" t="s">
+      <c r="P27" s="723"/>
+      <c r="Q27" s="723"/>
+      <c r="R27" s="8">
+        <v>5</v>
+      </c>
+      <c r="S27" s="710"/>
+      <c r="T27" s="710"/>
+      <c r="U27" s="710"/>
+      <c r="V27" s="710"/>
+      <c r="W27" s="710"/>
+      <c r="X27" s="710"/>
+      <c r="Y27" s="710"/>
+      <c r="Z27" s="710"/>
+      <c r="AA27" s="710"/>
+      <c r="AB27" s="710"/>
+      <c r="AC27" s="710"/>
+      <c r="AD27" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="8" customFormat="1" ht="22.5">
+    <row r="28" spans="1:30" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A28" s="48">
         <v>28</v>
       </c>
@@ -18734,11 +19442,27 @@
         <v>136</v>
       </c>
       <c r="O28" s="34"/>
-      <c r="P28" s="8" t="s">
+      <c r="P28" s="723"/>
+      <c r="Q28" s="723"/>
+      <c r="R28" s="8">
+        <v>5</v>
+      </c>
+      <c r="S28" s="710"/>
+      <c r="T28" s="710"/>
+      <c r="U28" s="710"/>
+      <c r="V28" s="710"/>
+      <c r="W28" s="710"/>
+      <c r="X28" s="710"/>
+      <c r="Y28" s="710"/>
+      <c r="Z28" s="710"/>
+      <c r="AA28" s="710"/>
+      <c r="AB28" s="710"/>
+      <c r="AC28" s="710"/>
+      <c r="AD28" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" ht="22.5">
+    <row r="29" spans="1:30" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A29" s="50">
         <v>29</v>
       </c>
@@ -18764,11 +19488,27 @@
         <v>136</v>
       </c>
       <c r="O29" s="36"/>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="725"/>
+      <c r="Q29" s="725"/>
+      <c r="R29" s="3">
+        <v>6</v>
+      </c>
+      <c r="S29" s="712"/>
+      <c r="T29" s="712"/>
+      <c r="U29" s="712"/>
+      <c r="V29" s="712"/>
+      <c r="W29" s="712"/>
+      <c r="X29" s="712"/>
+      <c r="Y29" s="712"/>
+      <c r="Z29" s="712"/>
+      <c r="AA29" s="712"/>
+      <c r="AB29" s="712"/>
+      <c r="AC29" s="712"/>
+      <c r="AD29" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" ht="22.5">
+    <row r="30" spans="1:30" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A30" s="50">
         <v>30</v>
       </c>
@@ -18794,11 +19534,27 @@
         <v>139</v>
       </c>
       <c r="O30" s="36"/>
-      <c r="P30" s="3" t="s">
+      <c r="P30" s="725"/>
+      <c r="Q30" s="725"/>
+      <c r="R30" s="3">
+        <v>6</v>
+      </c>
+      <c r="S30" s="712"/>
+      <c r="T30" s="712"/>
+      <c r="U30" s="712"/>
+      <c r="V30" s="712"/>
+      <c r="W30" s="712"/>
+      <c r="X30" s="712"/>
+      <c r="Y30" s="712"/>
+      <c r="Z30" s="712"/>
+      <c r="AA30" s="712"/>
+      <c r="AB30" s="712"/>
+      <c r="AC30" s="712"/>
+      <c r="AD30" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" ht="22.5">
+    <row r="31" spans="1:30" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A31" s="50">
         <v>31</v>
       </c>
@@ -18824,11 +19580,27 @@
         <v>141</v>
       </c>
       <c r="O31" s="36"/>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="725"/>
+      <c r="Q31" s="725"/>
+      <c r="R31" s="3">
+        <v>6</v>
+      </c>
+      <c r="S31" s="712"/>
+      <c r="T31" s="712"/>
+      <c r="U31" s="712"/>
+      <c r="V31" s="712"/>
+      <c r="W31" s="712"/>
+      <c r="X31" s="712"/>
+      <c r="Y31" s="712"/>
+      <c r="Z31" s="712"/>
+      <c r="AA31" s="712"/>
+      <c r="AB31" s="712"/>
+      <c r="AC31" s="712"/>
+      <c r="AD31" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1" ht="22.5">
+    <row r="32" spans="1:30" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A32" s="347">
         <v>32</v>
       </c>
@@ -18848,11 +19620,27 @@
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="725"/>
+      <c r="Q32" s="725"/>
+      <c r="R32" s="3">
+        <v>6</v>
+      </c>
+      <c r="S32" s="712"/>
+      <c r="T32" s="712"/>
+      <c r="U32" s="712"/>
+      <c r="V32" s="712"/>
+      <c r="W32" s="712"/>
+      <c r="X32" s="712"/>
+      <c r="Y32" s="712"/>
+      <c r="Z32" s="712"/>
+      <c r="AA32" s="712"/>
+      <c r="AB32" s="712"/>
+      <c r="AC32" s="712"/>
+      <c r="AD32" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" ht="22.5">
+    <row r="33" spans="1:30" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A33" s="50">
         <v>33</v>
       </c>
@@ -18872,11 +19660,27 @@
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="725"/>
+      <c r="Q33" s="725"/>
+      <c r="R33" s="3">
+        <v>6</v>
+      </c>
+      <c r="S33" s="712"/>
+      <c r="T33" s="712"/>
+      <c r="U33" s="712"/>
+      <c r="V33" s="712"/>
+      <c r="W33" s="712"/>
+      <c r="X33" s="712"/>
+      <c r="Y33" s="712"/>
+      <c r="Z33" s="712"/>
+      <c r="AA33" s="712"/>
+      <c r="AB33" s="712"/>
+      <c r="AC33" s="712"/>
+      <c r="AD33" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="5" customFormat="1" ht="22.5">
+    <row r="34" spans="1:30" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A34" s="51">
         <v>34</v>
       </c>
@@ -18896,11 +19700,27 @@
       <c r="M34" s="39"/>
       <c r="N34" s="39"/>
       <c r="O34" s="39"/>
-      <c r="P34" s="5" t="s">
+      <c r="P34" s="726"/>
+      <c r="Q34" s="726"/>
+      <c r="R34" s="5">
+        <v>6</v>
+      </c>
+      <c r="S34" s="713"/>
+      <c r="T34" s="713"/>
+      <c r="U34" s="713"/>
+      <c r="V34" s="713"/>
+      <c r="W34" s="713"/>
+      <c r="X34" s="713"/>
+      <c r="Y34" s="713"/>
+      <c r="Z34" s="713"/>
+      <c r="AA34" s="713"/>
+      <c r="AB34" s="713"/>
+      <c r="AC34" s="713"/>
+      <c r="AD34" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="5" customFormat="1" ht="22.5">
+    <row r="35" spans="1:30" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A35" s="51">
         <v>35</v>
       </c>
@@ -18920,11 +19740,27 @@
       <c r="M35" s="39"/>
       <c r="N35" s="39"/>
       <c r="O35" s="39"/>
-      <c r="P35" s="5" t="s">
+      <c r="P35" s="726"/>
+      <c r="Q35" s="726"/>
+      <c r="R35" s="5">
+        <v>7</v>
+      </c>
+      <c r="S35" s="713"/>
+      <c r="T35" s="713"/>
+      <c r="U35" s="713"/>
+      <c r="V35" s="713"/>
+      <c r="W35" s="713"/>
+      <c r="X35" s="713"/>
+      <c r="Y35" s="713"/>
+      <c r="Z35" s="713"/>
+      <c r="AA35" s="713"/>
+      <c r="AB35" s="713"/>
+      <c r="AC35" s="713"/>
+      <c r="AD35" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="5" customFormat="1" ht="22.5">
+    <row r="36" spans="1:30" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A36" s="348">
         <v>36</v>
       </c>
@@ -18944,11 +19780,27 @@
       <c r="M36" s="39"/>
       <c r="N36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="5" t="s">
+      <c r="P36" s="726"/>
+      <c r="Q36" s="726"/>
+      <c r="R36" s="5">
+        <v>7</v>
+      </c>
+      <c r="S36" s="713"/>
+      <c r="T36" s="713"/>
+      <c r="U36" s="713"/>
+      <c r="V36" s="713"/>
+      <c r="W36" s="713"/>
+      <c r="X36" s="713"/>
+      <c r="Y36" s="713"/>
+      <c r="Z36" s="713"/>
+      <c r="AA36" s="713"/>
+      <c r="AB36" s="713"/>
+      <c r="AC36" s="713"/>
+      <c r="AD36" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="5" customFormat="1" ht="22.5">
+    <row r="37" spans="1:30" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A37" s="51">
         <v>37</v>
       </c>
@@ -18968,11 +19820,27 @@
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="5" t="s">
+      <c r="P37" s="726"/>
+      <c r="Q37" s="726"/>
+      <c r="R37" s="5">
+        <v>7</v>
+      </c>
+      <c r="S37" s="713"/>
+      <c r="T37" s="713"/>
+      <c r="U37" s="713"/>
+      <c r="V37" s="713"/>
+      <c r="W37" s="713"/>
+      <c r="X37" s="713"/>
+      <c r="Y37" s="713"/>
+      <c r="Z37" s="713"/>
+      <c r="AA37" s="713"/>
+      <c r="AB37" s="713"/>
+      <c r="AC37" s="713"/>
+      <c r="AD37" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="5" customFormat="1" ht="22.5">
+    <row r="38" spans="1:30" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A38" s="51">
         <v>38</v>
       </c>
@@ -18992,11 +19860,27 @@
       <c r="M38" s="39"/>
       <c r="N38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="5" t="s">
+      <c r="P38" s="726"/>
+      <c r="Q38" s="726"/>
+      <c r="R38" s="5">
+        <v>7</v>
+      </c>
+      <c r="S38" s="713"/>
+      <c r="T38" s="713"/>
+      <c r="U38" s="713"/>
+      <c r="V38" s="713"/>
+      <c r="W38" s="713"/>
+      <c r="X38" s="713"/>
+      <c r="Y38" s="713"/>
+      <c r="Z38" s="713"/>
+      <c r="AA38" s="713"/>
+      <c r="AB38" s="713"/>
+      <c r="AC38" s="713"/>
+      <c r="AD38" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="6" customFormat="1" ht="22.5">
+    <row r="39" spans="1:30" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A39" s="52">
         <v>39</v>
       </c>
@@ -19016,11 +19900,27 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
-      <c r="P39" s="6" t="s">
+      <c r="P39" s="727"/>
+      <c r="Q39" s="727"/>
+      <c r="R39" s="6">
+        <v>7</v>
+      </c>
+      <c r="S39" s="714"/>
+      <c r="T39" s="714"/>
+      <c r="U39" s="714"/>
+      <c r="V39" s="714"/>
+      <c r="W39" s="714"/>
+      <c r="X39" s="714"/>
+      <c r="Y39" s="714"/>
+      <c r="Z39" s="714"/>
+      <c r="AA39" s="714"/>
+      <c r="AB39" s="714"/>
+      <c r="AC39" s="714"/>
+      <c r="AD39" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="6" customFormat="1" ht="22.5">
+    <row r="40" spans="1:30" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A40" s="346">
         <v>40</v>
       </c>
@@ -19040,11 +19940,27 @@
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
-      <c r="P40" s="6" t="s">
+      <c r="P40" s="727"/>
+      <c r="Q40" s="727"/>
+      <c r="R40" s="6">
+        <v>7</v>
+      </c>
+      <c r="S40" s="714"/>
+      <c r="T40" s="714"/>
+      <c r="U40" s="714"/>
+      <c r="V40" s="714"/>
+      <c r="W40" s="714"/>
+      <c r="X40" s="714"/>
+      <c r="Y40" s="714"/>
+      <c r="Z40" s="714"/>
+      <c r="AA40" s="714"/>
+      <c r="AB40" s="714"/>
+      <c r="AC40" s="714"/>
+      <c r="AD40" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="6" customFormat="1" ht="22.5">
+    <row r="41" spans="1:30" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A41" s="52">
         <v>41</v>
       </c>
@@ -19064,11 +19980,27 @@
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
-      <c r="P41" s="6" t="s">
+      <c r="P41" s="727"/>
+      <c r="Q41" s="727"/>
+      <c r="R41" s="6">
+        <v>8</v>
+      </c>
+      <c r="S41" s="714"/>
+      <c r="T41" s="714"/>
+      <c r="U41" s="714"/>
+      <c r="V41" s="714"/>
+      <c r="W41" s="714"/>
+      <c r="X41" s="714"/>
+      <c r="Y41" s="714"/>
+      <c r="Z41" s="714"/>
+      <c r="AA41" s="714"/>
+      <c r="AB41" s="714"/>
+      <c r="AC41" s="714"/>
+      <c r="AD41" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="6" customFormat="1" ht="22.5">
+    <row r="42" spans="1:30" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A42" s="52">
         <v>42</v>
       </c>
@@ -19088,11 +20020,27 @@
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
-      <c r="P42" s="6" t="s">
+      <c r="P42" s="727"/>
+      <c r="Q42" s="727"/>
+      <c r="R42" s="6">
+        <v>8</v>
+      </c>
+      <c r="S42" s="714"/>
+      <c r="T42" s="714"/>
+      <c r="U42" s="714"/>
+      <c r="V42" s="714"/>
+      <c r="W42" s="714"/>
+      <c r="X42" s="714"/>
+      <c r="Y42" s="714"/>
+      <c r="Z42" s="714"/>
+      <c r="AA42" s="714"/>
+      <c r="AB42" s="714"/>
+      <c r="AC42" s="714"/>
+      <c r="AD42" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="6" customFormat="1" ht="22.5">
+    <row r="43" spans="1:30" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A43" s="52">
         <v>43</v>
       </c>
@@ -19112,11 +20060,27 @@
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
-      <c r="P43" s="6" t="s">
+      <c r="P43" s="727"/>
+      <c r="Q43" s="727"/>
+      <c r="R43" s="6">
+        <v>8</v>
+      </c>
+      <c r="S43" s="714"/>
+      <c r="T43" s="714"/>
+      <c r="U43" s="714"/>
+      <c r="V43" s="714"/>
+      <c r="W43" s="714"/>
+      <c r="X43" s="714"/>
+      <c r="Y43" s="714"/>
+      <c r="Z43" s="714"/>
+      <c r="AA43" s="714"/>
+      <c r="AB43" s="714"/>
+      <c r="AC43" s="714"/>
+      <c r="AD43" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="9" customFormat="1" ht="22.5">
+    <row r="44" spans="1:30" s="9" customFormat="1" ht="23.25" thickBot="1">
       <c r="A44" s="47">
         <v>44</v>
       </c>
@@ -19136,11 +20100,27 @@
       <c r="M44" s="86"/>
       <c r="N44" s="86"/>
       <c r="O44" s="86"/>
-      <c r="P44" s="9" t="s">
+      <c r="P44" s="728"/>
+      <c r="Q44" s="728"/>
+      <c r="R44" s="9">
+        <v>8</v>
+      </c>
+      <c r="S44" s="715"/>
+      <c r="T44" s="715"/>
+      <c r="U44" s="715"/>
+      <c r="V44" s="715"/>
+      <c r="W44" s="715"/>
+      <c r="X44" s="715"/>
+      <c r="Y44" s="715"/>
+      <c r="Z44" s="715"/>
+      <c r="AA44" s="715"/>
+      <c r="AB44" s="715"/>
+      <c r="AC44" s="715"/>
+      <c r="AD44" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="9" customFormat="1" ht="22.5">
+    <row r="45" spans="1:30" s="9" customFormat="1" ht="23.25" thickBot="1">
       <c r="A45" s="47">
         <v>45</v>
       </c>
@@ -19160,11 +20140,27 @@
       <c r="M45" s="86"/>
       <c r="N45" s="86"/>
       <c r="O45" s="86"/>
-      <c r="P45" s="9" t="s">
+      <c r="P45" s="728"/>
+      <c r="Q45" s="728"/>
+      <c r="R45" s="9">
+        <v>8</v>
+      </c>
+      <c r="S45" s="715"/>
+      <c r="T45" s="715"/>
+      <c r="U45" s="715"/>
+      <c r="V45" s="715"/>
+      <c r="W45" s="715"/>
+      <c r="X45" s="715"/>
+      <c r="Y45" s="715"/>
+      <c r="Z45" s="715"/>
+      <c r="AA45" s="715"/>
+      <c r="AB45" s="715"/>
+      <c r="AC45" s="715"/>
+      <c r="AD45" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="9" customFormat="1" ht="22.5">
+    <row r="46" spans="1:30" s="9" customFormat="1" ht="23.25" thickBot="1">
       <c r="A46" s="47">
         <v>46</v>
       </c>
@@ -19184,11 +20180,27 @@
       <c r="M46" s="86"/>
       <c r="N46" s="86"/>
       <c r="O46" s="86"/>
-      <c r="P46" s="9" t="s">
+      <c r="P46" s="728"/>
+      <c r="Q46" s="728"/>
+      <c r="R46" s="9">
+        <v>8</v>
+      </c>
+      <c r="S46" s="715"/>
+      <c r="T46" s="715"/>
+      <c r="U46" s="715"/>
+      <c r="V46" s="715"/>
+      <c r="W46" s="715"/>
+      <c r="X46" s="715"/>
+      <c r="Y46" s="715"/>
+      <c r="Z46" s="715"/>
+      <c r="AA46" s="715"/>
+      <c r="AB46" s="715"/>
+      <c r="AC46" s="715"/>
+      <c r="AD46" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="9" customFormat="1" ht="22.5">
+    <row r="47" spans="1:30" s="9" customFormat="1" ht="23.25" thickBot="1">
       <c r="A47" s="47">
         <v>47</v>
       </c>
@@ -19208,11 +20220,27 @@
       <c r="M47" s="86"/>
       <c r="N47" s="86"/>
       <c r="O47" s="86"/>
-      <c r="P47" s="9" t="s">
+      <c r="P47" s="728"/>
+      <c r="Q47" s="728"/>
+      <c r="R47" s="9">
+        <v>8</v>
+      </c>
+      <c r="S47" s="715"/>
+      <c r="T47" s="715"/>
+      <c r="U47" s="715"/>
+      <c r="V47" s="715"/>
+      <c r="W47" s="715"/>
+      <c r="X47" s="715"/>
+      <c r="Y47" s="715"/>
+      <c r="Z47" s="715"/>
+      <c r="AA47" s="715"/>
+      <c r="AB47" s="715"/>
+      <c r="AC47" s="715"/>
+      <c r="AD47" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="9" customFormat="1" ht="22.5">
+    <row r="48" spans="1:30" s="9" customFormat="1" ht="23.25" thickBot="1">
       <c r="A48" s="350">
         <v>48</v>
       </c>
@@ -19232,11 +20260,27 @@
       <c r="M48" s="86"/>
       <c r="N48" s="86"/>
       <c r="O48" s="86"/>
-      <c r="P48" s="9" t="s">
+      <c r="P48" s="728"/>
+      <c r="Q48" s="728"/>
+      <c r="R48" s="9">
+        <v>9</v>
+      </c>
+      <c r="S48" s="715"/>
+      <c r="T48" s="715"/>
+      <c r="U48" s="715"/>
+      <c r="V48" s="715"/>
+      <c r="W48" s="715"/>
+      <c r="X48" s="715"/>
+      <c r="Y48" s="715"/>
+      <c r="Z48" s="715"/>
+      <c r="AA48" s="715"/>
+      <c r="AB48" s="715"/>
+      <c r="AC48" s="715"/>
+      <c r="AD48" s="9" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="8" customFormat="1" ht="22.5">
+    <row r="49" spans="1:29" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A49" s="48">
         <v>49</v>
       </c>
@@ -19256,8 +20300,24 @@
       <c r="M49" s="34"/>
       <c r="N49" s="34"/>
       <c r="O49" s="34"/>
-    </row>
-    <row r="50" spans="1:15" s="8" customFormat="1" ht="22.5">
+      <c r="P49" s="723"/>
+      <c r="Q49" s="723"/>
+      <c r="R49" s="8">
+        <v>9</v>
+      </c>
+      <c r="S49" s="710"/>
+      <c r="T49" s="710"/>
+      <c r="U49" s="710"/>
+      <c r="V49" s="710"/>
+      <c r="W49" s="710"/>
+      <c r="X49" s="710"/>
+      <c r="Y49" s="710"/>
+      <c r="Z49" s="710"/>
+      <c r="AA49" s="710"/>
+      <c r="AB49" s="710"/>
+      <c r="AC49" s="710"/>
+    </row>
+    <row r="50" spans="1:29" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A50" s="48">
         <v>50</v>
       </c>
@@ -19277,8 +20337,24 @@
       <c r="M50" s="34"/>
       <c r="N50" s="34"/>
       <c r="O50" s="34"/>
-    </row>
-    <row r="51" spans="1:15" s="8" customFormat="1" ht="22.5">
+      <c r="P50" s="723"/>
+      <c r="Q50" s="723"/>
+      <c r="R50" s="8">
+        <v>9</v>
+      </c>
+      <c r="S50" s="710"/>
+      <c r="T50" s="710"/>
+      <c r="U50" s="710"/>
+      <c r="V50" s="710"/>
+      <c r="W50" s="710"/>
+      <c r="X50" s="710"/>
+      <c r="Y50" s="710"/>
+      <c r="Z50" s="710"/>
+      <c r="AA50" s="710"/>
+      <c r="AB50" s="710"/>
+      <c r="AC50" s="710"/>
+    </row>
+    <row r="51" spans="1:29" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A51" s="48">
         <v>51</v>
       </c>
@@ -19298,8 +20374,24 @@
       <c r="M51" s="34"/>
       <c r="N51" s="34"/>
       <c r="O51" s="34"/>
-    </row>
-    <row r="52" spans="1:15" s="8" customFormat="1" ht="22.5">
+      <c r="P51" s="723"/>
+      <c r="Q51" s="723"/>
+      <c r="R51" s="8">
+        <v>9</v>
+      </c>
+      <c r="S51" s="710"/>
+      <c r="T51" s="710"/>
+      <c r="U51" s="710"/>
+      <c r="V51" s="710"/>
+      <c r="W51" s="710"/>
+      <c r="X51" s="710"/>
+      <c r="Y51" s="710"/>
+      <c r="Z51" s="710"/>
+      <c r="AA51" s="710"/>
+      <c r="AB51" s="710"/>
+      <c r="AC51" s="710"/>
+    </row>
+    <row r="52" spans="1:29" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A52" s="48">
         <v>52</v>
       </c>
@@ -19319,8 +20411,24 @@
       <c r="M52" s="34"/>
       <c r="N52" s="34"/>
       <c r="O52" s="34"/>
-    </row>
-    <row r="53" spans="1:15" s="8" customFormat="1" ht="22.5">
+      <c r="P52" s="723"/>
+      <c r="Q52" s="723"/>
+      <c r="R52" s="8">
+        <v>9</v>
+      </c>
+      <c r="S52" s="710"/>
+      <c r="T52" s="710"/>
+      <c r="U52" s="710"/>
+      <c r="V52" s="710"/>
+      <c r="W52" s="710"/>
+      <c r="X52" s="710"/>
+      <c r="Y52" s="710"/>
+      <c r="Z52" s="710"/>
+      <c r="AA52" s="710"/>
+      <c r="AB52" s="710"/>
+      <c r="AC52" s="710"/>
+    </row>
+    <row r="53" spans="1:29" s="8" customFormat="1" ht="23.25" thickBot="1">
       <c r="A53" s="48">
         <v>53</v>
       </c>
@@ -19340,8 +20448,24 @@
       <c r="M53" s="34"/>
       <c r="N53" s="34"/>
       <c r="O53" s="34"/>
-    </row>
-    <row r="54" spans="1:15" s="3" customFormat="1" ht="22.5">
+      <c r="P53" s="723"/>
+      <c r="Q53" s="723"/>
+      <c r="R53" s="8">
+        <v>9</v>
+      </c>
+      <c r="S53" s="710"/>
+      <c r="T53" s="710"/>
+      <c r="U53" s="710"/>
+      <c r="V53" s="710"/>
+      <c r="W53" s="710"/>
+      <c r="X53" s="710"/>
+      <c r="Y53" s="710"/>
+      <c r="Z53" s="710"/>
+      <c r="AA53" s="710"/>
+      <c r="AB53" s="710"/>
+      <c r="AC53" s="710"/>
+    </row>
+    <row r="54" spans="1:29" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A54" s="50">
         <v>54</v>
       </c>
@@ -19361,8 +20485,24 @@
       <c r="M54" s="36"/>
       <c r="N54" s="36"/>
       <c r="O54" s="36"/>
-    </row>
-    <row r="55" spans="1:15" s="3" customFormat="1" ht="22.5">
+      <c r="P54" s="725"/>
+      <c r="Q54" s="725"/>
+      <c r="R54" s="3">
+        <v>9</v>
+      </c>
+      <c r="S54" s="712"/>
+      <c r="T54" s="712"/>
+      <c r="U54" s="712"/>
+      <c r="V54" s="712"/>
+      <c r="W54" s="712"/>
+      <c r="X54" s="712"/>
+      <c r="Y54" s="712"/>
+      <c r="Z54" s="712"/>
+      <c r="AA54" s="712"/>
+      <c r="AB54" s="712"/>
+      <c r="AC54" s="712"/>
+    </row>
+    <row r="55" spans="1:29" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A55" s="50">
         <v>55</v>
       </c>
@@ -19382,8 +20522,24 @@
       <c r="M55" s="36"/>
       <c r="N55" s="36"/>
       <c r="O55" s="36"/>
-    </row>
-    <row r="56" spans="1:15" s="3" customFormat="1" ht="22.5">
+      <c r="P55" s="725"/>
+      <c r="Q55" s="725"/>
+      <c r="R55" s="3">
+        <v>9</v>
+      </c>
+      <c r="S55" s="712"/>
+      <c r="T55" s="712"/>
+      <c r="U55" s="712"/>
+      <c r="V55" s="712"/>
+      <c r="W55" s="712"/>
+      <c r="X55" s="712"/>
+      <c r="Y55" s="712"/>
+      <c r="Z55" s="712"/>
+      <c r="AA55" s="712"/>
+      <c r="AB55" s="712"/>
+      <c r="AC55" s="712"/>
+    </row>
+    <row r="56" spans="1:29" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A56" s="347">
         <v>56</v>
       </c>
@@ -19403,8 +20559,24 @@
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
       <c r="O56" s="36"/>
-    </row>
-    <row r="57" spans="1:15" s="3" customFormat="1" ht="22.5">
+      <c r="P56" s="725"/>
+      <c r="Q56" s="725"/>
+      <c r="R56" s="3">
+        <v>10</v>
+      </c>
+      <c r="S56" s="712"/>
+      <c r="T56" s="712"/>
+      <c r="U56" s="712"/>
+      <c r="V56" s="712"/>
+      <c r="W56" s="712"/>
+      <c r="X56" s="712"/>
+      <c r="Y56" s="712"/>
+      <c r="Z56" s="712"/>
+      <c r="AA56" s="712"/>
+      <c r="AB56" s="712"/>
+      <c r="AC56" s="712"/>
+    </row>
+    <row r="57" spans="1:29" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A57" s="50">
         <v>57</v>
       </c>
@@ -19424,8 +20596,24 @@
       <c r="M57" s="36"/>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
-    </row>
-    <row r="58" spans="1:15" s="3" customFormat="1" ht="22.5">
+      <c r="P57" s="725"/>
+      <c r="Q57" s="725"/>
+      <c r="R57" s="3">
+        <v>10</v>
+      </c>
+      <c r="S57" s="712"/>
+      <c r="T57" s="712"/>
+      <c r="U57" s="712"/>
+      <c r="V57" s="712"/>
+      <c r="W57" s="712"/>
+      <c r="X57" s="712"/>
+      <c r="Y57" s="712"/>
+      <c r="Z57" s="712"/>
+      <c r="AA57" s="712"/>
+      <c r="AB57" s="712"/>
+      <c r="AC57" s="712"/>
+    </row>
+    <row r="58" spans="1:29" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A58" s="50">
         <v>58</v>
       </c>
@@ -19445,8 +20633,24 @@
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
       <c r="O58" s="36"/>
-    </row>
-    <row r="59" spans="1:15" s="5" customFormat="1" ht="22.5">
+      <c r="P58" s="725"/>
+      <c r="Q58" s="725"/>
+      <c r="R58" s="3">
+        <v>10</v>
+      </c>
+      <c r="S58" s="712"/>
+      <c r="T58" s="712"/>
+      <c r="U58" s="712"/>
+      <c r="V58" s="712"/>
+      <c r="W58" s="712"/>
+      <c r="X58" s="712"/>
+      <c r="Y58" s="712"/>
+      <c r="Z58" s="712"/>
+      <c r="AA58" s="712"/>
+      <c r="AB58" s="712"/>
+      <c r="AC58" s="712"/>
+    </row>
+    <row r="59" spans="1:29" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A59" s="51">
         <v>59</v>
       </c>
@@ -19466,8 +20670,24 @@
       <c r="M59" s="39"/>
       <c r="N59" s="39"/>
       <c r="O59" s="39"/>
-    </row>
-    <row r="60" spans="1:15" s="5" customFormat="1" ht="22.5">
+      <c r="P59" s="726"/>
+      <c r="Q59" s="726"/>
+      <c r="R59" s="5">
+        <v>10</v>
+      </c>
+      <c r="S59" s="713"/>
+      <c r="T59" s="713"/>
+      <c r="U59" s="713"/>
+      <c r="V59" s="713"/>
+      <c r="W59" s="713"/>
+      <c r="X59" s="713"/>
+      <c r="Y59" s="713"/>
+      <c r="Z59" s="713"/>
+      <c r="AA59" s="713"/>
+      <c r="AB59" s="713"/>
+      <c r="AC59" s="713"/>
+    </row>
+    <row r="60" spans="1:29" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A60" s="51">
         <v>60</v>
       </c>
@@ -19487,8 +20707,24 @@
       <c r="M60" s="39"/>
       <c r="N60" s="39"/>
       <c r="O60" s="39"/>
-    </row>
-    <row r="61" spans="1:15" s="5" customFormat="1" ht="22.5">
+      <c r="P60" s="726"/>
+      <c r="Q60" s="726"/>
+      <c r="R60" s="5">
+        <v>10</v>
+      </c>
+      <c r="S60" s="713"/>
+      <c r="T60" s="713"/>
+      <c r="U60" s="713"/>
+      <c r="V60" s="713"/>
+      <c r="W60" s="713"/>
+      <c r="X60" s="713"/>
+      <c r="Y60" s="713"/>
+      <c r="Z60" s="713"/>
+      <c r="AA60" s="713"/>
+      <c r="AB60" s="713"/>
+      <c r="AC60" s="713"/>
+    </row>
+    <row r="61" spans="1:29" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A61" s="51">
         <v>61</v>
       </c>
@@ -19508,8 +20744,24 @@
       <c r="M61" s="39"/>
       <c r="N61" s="39"/>
       <c r="O61" s="39"/>
-    </row>
-    <row r="62" spans="1:15" s="5" customFormat="1" ht="22.5">
+      <c r="P61" s="726"/>
+      <c r="Q61" s="726"/>
+      <c r="R61" s="5">
+        <v>10</v>
+      </c>
+      <c r="S61" s="713"/>
+      <c r="T61" s="713"/>
+      <c r="U61" s="713"/>
+      <c r="V61" s="713"/>
+      <c r="W61" s="713"/>
+      <c r="X61" s="713"/>
+      <c r="Y61" s="713"/>
+      <c r="Z61" s="713"/>
+      <c r="AA61" s="713"/>
+      <c r="AB61" s="713"/>
+      <c r="AC61" s="713"/>
+    </row>
+    <row r="62" spans="1:29" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A62" s="51">
         <v>62</v>
       </c>
@@ -19529,8 +20781,24 @@
       <c r="M62" s="39"/>
       <c r="N62" s="39"/>
       <c r="O62" s="39"/>
-    </row>
-    <row r="63" spans="1:15" s="5" customFormat="1" ht="22.5">
+      <c r="P62" s="726"/>
+      <c r="Q62" s="726"/>
+      <c r="R62" s="5">
+        <v>10</v>
+      </c>
+      <c r="S62" s="713"/>
+      <c r="T62" s="713"/>
+      <c r="U62" s="713"/>
+      <c r="V62" s="713"/>
+      <c r="W62" s="713"/>
+      <c r="X62" s="713"/>
+      <c r="Y62" s="713"/>
+      <c r="Z62" s="713"/>
+      <c r="AA62" s="713"/>
+      <c r="AB62" s="713"/>
+      <c r="AC62" s="713"/>
+    </row>
+    <row r="63" spans="1:29" s="5" customFormat="1" ht="23.25" thickBot="1">
       <c r="A63" s="51">
         <v>63</v>
       </c>
@@ -19550,8 +20818,24 @@
       <c r="M63" s="39"/>
       <c r="N63" s="39"/>
       <c r="O63" s="39"/>
-    </row>
-    <row r="64" spans="1:15" s="6" customFormat="1" ht="22.5">
+      <c r="P63" s="726"/>
+      <c r="Q63" s="726"/>
+      <c r="R63" s="5">
+        <v>10</v>
+      </c>
+      <c r="S63" s="713"/>
+      <c r="T63" s="713"/>
+      <c r="U63" s="713"/>
+      <c r="V63" s="713"/>
+      <c r="W63" s="713"/>
+      <c r="X63" s="713"/>
+      <c r="Y63" s="713"/>
+      <c r="Z63" s="713"/>
+      <c r="AA63" s="713"/>
+      <c r="AB63" s="713"/>
+      <c r="AC63" s="713"/>
+    </row>
+    <row r="64" spans="1:29" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A64" s="346">
         <v>64</v>
       </c>
@@ -19571,8 +20855,24 @@
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
       <c r="O64" s="18"/>
-    </row>
-    <row r="65" spans="1:15" s="6" customFormat="1" ht="22.5">
+      <c r="P64" s="727"/>
+      <c r="Q64" s="727"/>
+      <c r="R64" s="6">
+        <v>11</v>
+      </c>
+      <c r="S64" s="714"/>
+      <c r="T64" s="714"/>
+      <c r="U64" s="714"/>
+      <c r="V64" s="714"/>
+      <c r="W64" s="714"/>
+      <c r="X64" s="714"/>
+      <c r="Y64" s="714"/>
+      <c r="Z64" s="714"/>
+      <c r="AA64" s="714"/>
+      <c r="AB64" s="714"/>
+      <c r="AC64" s="714"/>
+    </row>
+    <row r="65" spans="1:29" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A65" s="52">
         <v>65</v>
       </c>
@@ -19592,8 +20892,24 @@
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
       <c r="O65" s="18"/>
-    </row>
-    <row r="66" spans="1:15" s="6" customFormat="1" ht="22.5">
+      <c r="P65" s="727"/>
+      <c r="Q65" s="727"/>
+      <c r="R65" s="6">
+        <v>11</v>
+      </c>
+      <c r="S65" s="714"/>
+      <c r="T65" s="714"/>
+      <c r="U65" s="714"/>
+      <c r="V65" s="714"/>
+      <c r="W65" s="714"/>
+      <c r="X65" s="714"/>
+      <c r="Y65" s="714"/>
+      <c r="Z65" s="714"/>
+      <c r="AA65" s="714"/>
+      <c r="AB65" s="714"/>
+      <c r="AC65" s="714"/>
+    </row>
+    <row r="66" spans="1:29" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A66" s="52">
         <v>66</v>
       </c>
@@ -19613,8 +20929,24 @@
       <c r="M66" s="18"/>
       <c r="N66" s="18"/>
       <c r="O66" s="18"/>
-    </row>
-    <row r="67" spans="1:15" s="6" customFormat="1" ht="22.5">
+      <c r="P66" s="727"/>
+      <c r="Q66" s="727"/>
+      <c r="R66" s="6">
+        <v>11</v>
+      </c>
+      <c r="S66" s="714"/>
+      <c r="T66" s="714"/>
+      <c r="U66" s="714"/>
+      <c r="V66" s="714"/>
+      <c r="W66" s="714"/>
+      <c r="X66" s="714"/>
+      <c r="Y66" s="714"/>
+      <c r="Z66" s="714"/>
+      <c r="AA66" s="714"/>
+      <c r="AB66" s="714"/>
+      <c r="AC66" s="714"/>
+    </row>
+    <row r="67" spans="1:29" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A67" s="52">
         <v>67</v>
       </c>
@@ -19631,8 +20963,24 @@
       <c r="M67" s="18"/>
       <c r="N67" s="18"/>
       <c r="O67" s="18"/>
-    </row>
-    <row r="68" spans="1:15" s="6" customFormat="1" ht="22.5">
+      <c r="P67" s="727"/>
+      <c r="Q67" s="727"/>
+      <c r="R67" s="6">
+        <v>11</v>
+      </c>
+      <c r="S67" s="714"/>
+      <c r="T67" s="714"/>
+      <c r="U67" s="714"/>
+      <c r="V67" s="714"/>
+      <c r="W67" s="714"/>
+      <c r="X67" s="714"/>
+      <c r="Y67" s="714"/>
+      <c r="Z67" s="714"/>
+      <c r="AA67" s="714"/>
+      <c r="AB67" s="714"/>
+      <c r="AC67" s="714"/>
+    </row>
+    <row r="68" spans="1:29" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A68" s="52">
         <v>68</v>
       </c>
@@ -19649,8 +20997,24 @@
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
-    </row>
-    <row r="69" spans="1:15" s="6" customFormat="1" ht="22.5">
+      <c r="P68" s="727"/>
+      <c r="Q68" s="727"/>
+      <c r="R68" s="6">
+        <v>11</v>
+      </c>
+      <c r="S68" s="714"/>
+      <c r="T68" s="714"/>
+      <c r="U68" s="714"/>
+      <c r="V68" s="714"/>
+      <c r="W68" s="714"/>
+      <c r="X68" s="714"/>
+      <c r="Y68" s="714"/>
+      <c r="Z68" s="714"/>
+      <c r="AA68" s="714"/>
+      <c r="AB68" s="714"/>
+      <c r="AC68" s="714"/>
+    </row>
+    <row r="69" spans="1:29" s="6" customFormat="1" ht="23.25" thickBot="1">
       <c r="A69" s="52">
         <v>69</v>
       </c>
@@ -19667,11 +21031,37 @@
       <c r="M69" s="18"/>
       <c r="N69" s="18"/>
       <c r="O69" s="18"/>
+      <c r="P69" s="727"/>
+      <c r="Q69" s="727"/>
+      <c r="R69" s="6">
+        <v>11</v>
+      </c>
+      <c r="S69" s="714"/>
+      <c r="T69" s="714"/>
+      <c r="U69" s="714"/>
+      <c r="V69" s="714"/>
+      <c r="W69" s="714"/>
+      <c r="X69" s="714"/>
+      <c r="Y69" s="714"/>
+      <c r="Z69" s="714"/>
+      <c r="AA69" s="714"/>
+      <c r="AB69" s="714"/>
+      <c r="AC69" s="714"/>
+    </row>
+    <row r="70" spans="1:29" thickBot="1">
+      <c r="R70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" thickBot="1">
+      <c r="R71">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39596,8 +40986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:IV74"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
